--- a/NewYorkTimes.xlsx
+++ b/NewYorkTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsteele/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49DE83B-1DA7-474A-A987-FC03FFB5AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB2154-8F3A-894C-96DB-67DC678BBA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15520" activeTab="1" xr2:uid="{05D2C157-EF64-2746-A9FF-D641974A1A9F}"/>
+    <workbookView xWindow="620" yWindow="580" windowWidth="28040" windowHeight="15520" activeTab="6" xr2:uid="{05D2C157-EF64-2746-A9FF-D641974A1A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Adjetives" sheetId="3" r:id="rId4"/>
     <sheet name="Adverbs" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Defense" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="2374">
   <si>
     <t xml:space="preserve"> to pass</t>
   </si>
@@ -5092,12 +5093,6 @@
     <t xml:space="preserve"> to divide</t>
   </si>
   <si>
-    <t>la eficacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> efficacy</t>
-  </si>
-  <si>
     <t>estimular</t>
   </si>
   <si>
@@ -5119,12 +5114,6 @@
     <t xml:space="preserve"> voucher</t>
   </si>
   <si>
-    <t>el estamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> class</t>
-  </si>
-  <si>
     <t>potenciar</t>
   </si>
   <si>
@@ -5149,18 +5138,6 @@
     <t xml:space="preserve"> ins and outs</t>
   </si>
   <si>
-    <t>el recoveco</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nook</t>
-  </si>
-  <si>
-    <t>creciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> growing</t>
-  </si>
-  <si>
     <t>el déficit</t>
   </si>
   <si>
@@ -5323,12 +5300,6 @@
     <t xml:space="preserve"> budgetary</t>
   </si>
   <si>
-    <t>la recaudación</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collection</t>
-  </si>
-  <si>
     <t xml:space="preserve"> budget</t>
   </si>
   <si>
@@ -5341,12 +5312,6 @@
     <t xml:space="preserve"> supplied</t>
   </si>
   <si>
-    <t>el paliativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> palliative measure</t>
-  </si>
-  <si>
     <t>discrecional</t>
   </si>
   <si>
@@ -5362,12 +5327,6 @@
     <t xml:space="preserve"> sustainability</t>
   </si>
   <si>
-    <t>contraerse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to contract</t>
-  </si>
-  <si>
     <t>la recesión</t>
   </si>
   <si>
@@ -5422,12 +5381,6 @@
     <t xml:space="preserve"> stagnation</t>
   </si>
   <si>
-    <t>expropiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to expropriate</t>
-  </si>
-  <si>
     <t>el poder adquisitivo</t>
   </si>
   <si>
@@ -5497,9 +5450,6 @@
     <t xml:space="preserve"> means</t>
   </si>
   <si>
-    <t>el auge</t>
-  </si>
-  <si>
     <t>aumentar</t>
   </si>
   <si>
@@ -5536,30 +5486,18 @@
     <t xml:space="preserve"> to be bankrupt</t>
   </si>
   <si>
-    <t>la tasa de paro</t>
-  </si>
-  <si>
     <t xml:space="preserve"> unemployment rate</t>
   </si>
   <si>
-    <t>el coste de la vida</t>
-  </si>
-  <si>
     <t>crisis económica</t>
   </si>
   <si>
     <t xml:space="preserve"> economic crisis</t>
   </si>
   <si>
-    <t>estar en paro</t>
-  </si>
-  <si>
     <t xml:space="preserve"> to be unemployed</t>
   </si>
   <si>
-    <t>el paro</t>
-  </si>
-  <si>
     <t xml:space="preserve"> market</t>
   </si>
   <si>
@@ -5731,9 +5669,6 @@
     <t>comercial</t>
   </si>
   <si>
-    <t>arancelario</t>
-  </si>
-  <si>
     <t>la importación</t>
   </si>
   <si>
@@ -5836,12 +5771,6 @@
     <t xml:space="preserve"> exhausted</t>
   </si>
   <si>
-    <t>dispuesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> willing</t>
-  </si>
-  <si>
     <t>estresado</t>
   </si>
   <si>
@@ -5962,12 +5891,6 @@
     <t xml:space="preserve"> connections</t>
   </si>
   <si>
-    <t>estar a la altura de</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to be up to</t>
-  </si>
-  <si>
     <t>estar bajo presión</t>
   </si>
   <si>
@@ -6025,12 +5948,6 @@
     <t xml:space="preserve"> minimum wage</t>
   </si>
   <si>
-    <t>el almacén</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> store</t>
-  </si>
-  <si>
     <t>el aumento de sueldo</t>
   </si>
   <si>
@@ -6047,13 +5964,1213 @@
   </si>
   <si>
     <t xml:space="preserve"> working hours</t>
+  </si>
+  <si>
+    <t>la tasa de desempleo</t>
+  </si>
+  <si>
+    <t>estar en desempleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La defensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La seguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La protección </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ejército </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La armada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las fuerzas armadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armed Forces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estrategia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La inteligencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las operaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las tropas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Troops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La frontera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La soberanía </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sovereignty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El contraespionaje </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Counterintelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ciberseguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cybersecurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vigilancia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La contingencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contingency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La alianza </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La disuasión </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deterrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las capacidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los misiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aviación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La infantería </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infantry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La logística </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El combate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El entrenamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El defensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El resguardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Safeguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La alerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La reserva </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estratega </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strategist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La patria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Homeland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lucha </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Struggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La amenaza </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Threat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El riesgo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El despliegue </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los radares </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Radars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El radar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las antenas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antennas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La tecnología </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La seguridad nacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El armisticio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armistice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estratégico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strategic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La inteligencia artificial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artificial intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El defensivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La planificación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La resiliencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resilience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La soberanía territorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Territorial sovereignty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El comando </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las comunicaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La diplomacia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diplomacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El espionaje </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fortificación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fortification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La geopolítica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geopolitics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El misil balístico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ballistic missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La neutralidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neutrality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La represalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retaliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rivalidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rivalry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El submarino </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La tecnología militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El acuerdo de defensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defense agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El asalto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La autodefensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La base militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La campaña militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La conquista </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conquest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El contrainteligencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La convención de Ginebra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geneva Convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El desarme </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Disarmament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La disputa territorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Territorial dispute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ejercicio militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El embargo de armas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arms embargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estado de alerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State of alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estrategia de defensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defense strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El fuego amigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Friendly fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La inspección de armas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weapons inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La intercepción </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La línea de defensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defense line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El mando central </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Central command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las medidas de seguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security measures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La neutralización </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neutralization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ofensiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Offensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La paridad militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military parity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El plan de contingencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contingency plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La postura defensiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defensive posture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El protocolo de seguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La red de inteligencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intelligence network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El repliegue estratégico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strategic withdrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La resolución de conflictos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conflict resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La restricción de armas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arms control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El riesgo de seguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La seguridad fronteriza </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Border security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema de alerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alert system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La táctica militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military tactics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tratado de defensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defense treaty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La unidad de combate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Combat unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vigilancia aérea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air surveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La zona desmilitarizada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demilitarized zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las armas nucleares </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nuclear weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La base aérea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ciberataque </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyberattack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las contramedidas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Countermeasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La defensa costera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coastal defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El dispositivo de seguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El escudo antimisiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missile shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La inteligencia militar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La operación encubierta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Covert operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self defense</t>
+  </si>
+  <si>
+    <t>mandar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to order</t>
+  </si>
+  <si>
+    <t>el pasado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> past</t>
+  </si>
+  <si>
+    <t>entrenar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to train</t>
+  </si>
+  <si>
+    <t>el dictador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dictator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history</t>
+  </si>
+  <si>
+    <t>el siglo</t>
+  </si>
+  <si>
+    <t>matar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> weapon</t>
+  </si>
+  <si>
+    <t>la cárcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prison</t>
+  </si>
+  <si>
+    <t>el ataque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attack</t>
+  </si>
+  <si>
+    <t>el rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rifle</t>
+  </si>
+  <si>
+    <t>defender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to defend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> country</t>
+  </si>
+  <si>
+    <t>la dictadura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dictatorship</t>
+  </si>
+  <si>
+    <t>huir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to flee</t>
+  </si>
+  <si>
+    <t>eliminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to eliminate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to confront</t>
+  </si>
+  <si>
+    <t>la esclavitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> slavery</t>
+  </si>
+  <si>
+    <t>el legado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> legacy</t>
+  </si>
+  <si>
+    <t>apuñalar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to stab</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fatal</t>
+  </si>
+  <si>
+    <t>la diplomacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diplomacy</t>
+  </si>
+  <si>
+    <t>el/la canciller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chancellor</t>
+  </si>
+  <si>
+    <t>el avión de combate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighter plane</t>
+  </si>
+  <si>
+    <t>la granada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grenade</t>
+  </si>
+  <si>
+    <t>el cañón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannon</t>
+  </si>
+  <si>
+    <t>la deserción</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertion</t>
+  </si>
+  <si>
+    <t>el/la recluta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recruit</t>
+  </si>
+  <si>
+    <t>la revolución</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> revolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> epoch</t>
+  </si>
+  <si>
+    <t>la era</t>
+  </si>
+  <si>
+    <t>el pelotón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> squad</t>
+  </si>
+  <si>
+    <t>el regimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> regiment</t>
+  </si>
+  <si>
+    <t>la brigada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brigade</t>
+  </si>
+  <si>
+    <t>el estallido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> explosion</t>
+  </si>
+  <si>
+    <t>el terrorismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorism</t>
+  </si>
+  <si>
+    <t>el bombardero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bomber</t>
+  </si>
+  <si>
+    <t>la mina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mine</t>
+  </si>
+  <si>
+    <t>la ametralladora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> machine gun</t>
+  </si>
+  <si>
+    <t>la bayoneta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bayonet</t>
+  </si>
+  <si>
+    <t>el coraje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> courage</t>
+  </si>
+  <si>
+    <t>la fortificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fortification</t>
+  </si>
+  <si>
+    <t>el castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fort</t>
+  </si>
+  <si>
+    <t>comandar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to command</t>
+  </si>
+  <si>
+    <t>el ataque aéreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> air strike</t>
+  </si>
+  <si>
+    <t>la insurrección</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insurrection</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear</t>
+  </si>
+  <si>
+    <t>la guerrilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guerrilla warfare</t>
+  </si>
+  <si>
+    <t>la guerra civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> civil war</t>
+  </si>
+  <si>
+    <t>la guerra mundial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> world war</t>
+  </si>
+  <si>
+    <t>retirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to withdraw</t>
+  </si>
+  <si>
+    <t>la unidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unit</t>
+  </si>
+  <si>
+    <t>el terreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> security</t>
+  </si>
+  <si>
+    <t>la sección</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> section</t>
+  </si>
+  <si>
+    <t>la reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reserve</t>
+  </si>
+  <si>
+    <t>la propaganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda</t>
+  </si>
+  <si>
+    <t>la posición</t>
+  </si>
+  <si>
+    <t>partidista</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> partisan</t>
+  </si>
+  <si>
+    <t>la patrulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patrol</t>
+  </si>
+  <si>
+    <t>la misión</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mission</t>
+  </si>
+  <si>
+    <t>el frente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> front</t>
+  </si>
+  <si>
+    <t>la formación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> formation</t>
+  </si>
+  <si>
+    <t>contraatacar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to counterattack</t>
+  </si>
+  <si>
+    <t>la columna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> column</t>
+  </si>
+  <si>
+    <t>el combate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combat</t>
+  </si>
+  <si>
+    <t>tirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to fire</t>
+  </si>
+  <si>
+    <t>el/la comandante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commander</t>
+  </si>
+  <si>
+    <t>el/la oficial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> officer</t>
+  </si>
+  <si>
+    <t>la logística</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logistics</t>
+  </si>
+  <si>
+    <t>la bala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bullet</t>
+  </si>
+  <si>
+    <t>la bomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bomb</t>
+  </si>
+  <si>
+    <t>el misil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> missile</t>
+  </si>
+  <si>
+    <t>la operación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> operation</t>
+  </si>
+  <si>
+    <t>la táctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tactics</t>
+  </si>
+  <si>
+    <t>el suministro</t>
+  </si>
+  <si>
+    <t>el/la soldado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> soldier</t>
+  </si>
+  <si>
+    <t>la rendición</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> surrender</t>
+  </si>
+  <si>
+    <t>la infantería</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> infantry</t>
+  </si>
+  <si>
+    <t>la artillería</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artillery</t>
+  </si>
+  <si>
+    <t>el bombardeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardment</t>
+  </si>
+  <si>
+    <t>la baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> casualty</t>
+  </si>
+  <si>
+    <t>herido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wounded</t>
+  </si>
+  <si>
+    <t>el preso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prisoner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fight</t>
+  </si>
+  <si>
+    <t>armar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to arm</t>
+  </si>
+  <si>
+    <t>militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> military</t>
+  </si>
+  <si>
+    <t>la derrota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defeat</t>
+  </si>
+  <si>
+    <t>la victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> victory</t>
+  </si>
+  <si>
+    <t>el asalto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> assault</t>
+  </si>
+  <si>
+    <t>la invasión</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> invasion</t>
+  </si>
+  <si>
+    <t>anfibio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amphibious</t>
+  </si>
+  <si>
+    <t>la trinchera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trench</t>
+  </si>
+  <si>
+    <t>el cerco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> siege</t>
+  </si>
+  <si>
+    <t>el estanque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tank</t>
+  </si>
+  <si>
+    <t>la batalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> battle</t>
+  </si>
+  <si>
+    <t>el/la general</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general</t>
+  </si>
+  <si>
+    <t>el ejército</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> army</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6085,6 +7202,13 @@
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6106,7 +7230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6114,6 +7238,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8020,7 +9145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22227A2D-4994-B94F-ACF3-14E6FE5DF462}">
   <dimension ref="A1:B454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A146" workbookViewId="0">
       <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
@@ -11663,17 +12788,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A461:A1048576 A1:A425">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  <conditionalFormatting sqref="A227:A373">
+    <cfRule type="duplicateValues" dxfId="13" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A374:A425">
+    <cfRule type="duplicateValues" dxfId="12" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A461:A1048576 A1:A182">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A227:A373">
-    <cfRule type="duplicateValues" dxfId="11" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A374:A425">
-    <cfRule type="duplicateValues" dxfId="10" priority="119"/>
+  <conditionalFormatting sqref="A461:A1048576 A1:A425">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11681,10 +12806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299E377-19DB-B345-B6BE-21EE20F20A39}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B208"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11831,15 +12956,15 @@
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B18" t="s">
         <v>1687</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>698</v>
+        <v>1688</v>
       </c>
       <c r="B19" t="s">
         <v>1689</v>
@@ -11847,26 +12972,26 @@
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1690</v>
+        <v>713</v>
       </c>
       <c r="B20" t="s">
-        <v>1691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B21" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>713</v>
+        <v>1692</v>
       </c>
       <c r="B22" t="s">
-        <v>685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -11946,63 +13071,63 @@
         <v>1712</v>
       </c>
       <c r="B32" t="s">
-        <v>1713</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B33" t="s">
         <v>1714</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B34" t="s">
         <v>1716</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1718</v>
+        <v>718</v>
       </c>
       <c r="B35" t="s">
-        <v>1719</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B36" t="s">
-        <v>349</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B37" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B38" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>718</v>
+        <v>1723</v>
       </c>
       <c r="B39" t="s">
-        <v>719</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12015,127 +13140,127 @@
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B41" t="s">
         <v>1727</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1729</v>
+        <v>706</v>
       </c>
       <c r="B42" t="s">
-        <v>1730</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1731</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B44" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>684</v>
+        <v>1731</v>
       </c>
       <c r="B45" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>706</v>
+        <v>1733</v>
       </c>
       <c r="B46" t="s">
-        <v>707</v>
+        <v>893</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>1734</v>
       </c>
       <c r="B47" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B48" t="s">
         <v>1737</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1739</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B50" t="s">
-        <v>893</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B51" t="s">
         <v>1742</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1744</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>1744</v>
       </c>
       <c r="B53" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B54" t="s">
         <v>1747</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B55" t="s">
         <v>1749</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>1750</v>
       </c>
       <c r="B56" t="s">
         <v>1751</v>
@@ -12143,154 +13268,154 @@
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B57" t="s">
         <v>1752</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1754</v>
+        <v>469</v>
       </c>
       <c r="B58" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B59" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B60" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B61" t="s">
-        <v>1761</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>408</v>
+        <v>1759</v>
       </c>
       <c r="B62" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>469</v>
+        <v>1761</v>
       </c>
       <c r="B63" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B64" t="s">
         <v>1764</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B65" t="s">
         <v>1766</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B66" t="s">
         <v>1768</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1770</v>
+        <v>694</v>
       </c>
       <c r="B67" t="s">
-        <v>1499</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1771</v>
+        <v>1201</v>
       </c>
       <c r="B68" t="s">
-        <v>1772</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="B69" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="B70" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="B71" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B72" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="B73" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>694</v>
+        <v>1779</v>
       </c>
       <c r="B74" t="s">
-        <v>695</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1201</v>
+        <v>1781</v>
       </c>
       <c r="B75" t="s">
-        <v>1202</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12319,690 +13444,690 @@
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1789</v>
+        <v>321</v>
       </c>
       <c r="B79" t="s">
-        <v>1790</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1791</v>
+        <v>682</v>
       </c>
       <c r="B80" t="s">
-        <v>1792</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="B81" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="B82" t="s">
-        <v>1796</v>
+        <v>717</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="B83" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="B84" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="B85" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="B86" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>321</v>
+        <v>1800</v>
       </c>
       <c r="B87" t="s">
-        <v>322</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>682</v>
+        <v>1802</v>
       </c>
       <c r="B88" t="s">
-        <v>683</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1805</v>
+        <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="B90" t="s">
-        <v>717</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B91" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B92" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B93" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B94" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1816</v>
+        <v>1974</v>
       </c>
       <c r="B95" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>1818</v>
+        <v>1286</v>
       </c>
       <c r="B96" t="s">
-        <v>1735</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="B97" t="s">
-        <v>351</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>43</v>
+        <v>1975</v>
       </c>
       <c r="B98" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1821</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1823</v>
+        <v>663</v>
       </c>
       <c r="B100" t="s">
-        <v>1824</v>
+        <v>664</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="B101" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="B102" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="B103" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="B104" t="s">
-        <v>1832</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1286</v>
+        <v>1826</v>
       </c>
       <c r="B105" t="s">
-        <v>1287</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1833</v>
+        <v>284</v>
       </c>
       <c r="B106" t="s">
-        <v>1676</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1834</v>
+        <v>677</v>
       </c>
       <c r="B107" t="s">
-        <v>1835</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="B108" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1838</v>
+        <v>587</v>
       </c>
       <c r="B109" t="s">
-        <v>1782</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>1830</v>
       </c>
       <c r="B110" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>663</v>
+        <v>1832</v>
       </c>
       <c r="B111" t="s">
-        <v>664</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1840</v>
+        <v>607</v>
       </c>
       <c r="B112" t="s">
-        <v>1841</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="B113" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="B114" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="B116" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>284</v>
+        <v>1842</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>677</v>
+        <v>1844</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1849</v>
+        <v>1208</v>
       </c>
       <c r="B119" t="s">
-        <v>1850</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>587</v>
+        <v>1846</v>
       </c>
       <c r="B120" t="s">
-        <v>588</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1851</v>
+        <v>799</v>
       </c>
       <c r="B121" t="s">
-        <v>1852</v>
+        <v>701</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="B122" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>607</v>
+        <v>1850</v>
       </c>
       <c r="B123" t="s">
-        <v>608</v>
+        <v>794</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B124" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1857</v>
+        <v>696</v>
       </c>
       <c r="B125" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="B126" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1861</v>
+        <v>1548</v>
       </c>
       <c r="B127" t="s">
-        <v>1862</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="B128" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1865</v>
+        <v>598</v>
       </c>
       <c r="B129" t="s">
-        <v>1866</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1208</v>
+        <v>1858</v>
       </c>
       <c r="B130" t="s">
-        <v>1209</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="B131" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>799</v>
+        <v>1862</v>
       </c>
       <c r="B132" t="s">
-        <v>701</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="B133" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="B134" t="s">
-        <v>794</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="B135" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>696</v>
+        <v>1870</v>
       </c>
       <c r="B136" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B137" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1548</v>
+        <v>424</v>
       </c>
       <c r="B138" t="s">
-        <v>1745</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="B139" t="s">
-        <v>1878</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>598</v>
+        <v>767</v>
       </c>
       <c r="B140" t="s">
-        <v>599</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="B141" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="B142" t="s">
-        <v>1882</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="B143" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="B144" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="B145" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B146" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1891</v>
+        <v>997</v>
       </c>
       <c r="B147" t="s">
-        <v>1892</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="B148" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>424</v>
+        <v>1888</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="B150" t="s">
-        <v>1529</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>767</v>
+        <v>1892</v>
       </c>
       <c r="B151" t="s">
-        <v>768</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B152" t="s">
-        <v>695</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B153" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B154" t="s">
-        <v>1486</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B155" t="s">
-        <v>1901</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B156" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B157" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1906</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>997</v>
+        <v>1905</v>
       </c>
       <c r="B159" t="s">
-        <v>838</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B160" t="s">
         <v>1908</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B161" t="s">
         <v>1910</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B162" t="s">
         <v>1912</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B163" t="s">
         <v>1914</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B164" t="s">
         <v>1916</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -13026,341 +14151,221 @@
         <v>1921</v>
       </c>
       <c r="B167" t="s">
-        <v>357</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B168" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B169" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>196</v>
+        <v>1927</v>
       </c>
       <c r="B170" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B171" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B172" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B173" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B174" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B175" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B176" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B177" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B178" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B179" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="B180" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B181" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B182" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B183" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B184" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B185" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B186" t="s">
-        <v>1958</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B187" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B188" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B189" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B190" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B191" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B192" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B193" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="B194" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>2000</v>
-      </c>
-      <c r="B208" t="s">
-        <v>2001</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A209 A380:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A365:A1048576 A1:A194">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14742,16 +15747,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A78 A181:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A170 A181:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A154">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:A170">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15140,13 +16145,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A34 A54:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A46 A54:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A46">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15345,4 +16350,1722 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA28B4-3D95-A141-A8DD-356C198B44DC}">
+  <dimension ref="A1:B212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:A212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B112" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B114" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B139" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B169" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B186" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B189" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A214:A1048576 A1:A212">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>